--- a/backend/data/DHKTPM.xlsx
+++ b/backend/data/DHKTPM.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\SON.admin\VIII\Architecture\dkhp-iuh-edu-vn\backend\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EF4F2709-710A-435B-BCE3-9FC7D4013AE2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6465A43C-EFD3-40D5-89BF-6B256AFA9D7B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{02EF117C-553B-4DD7-84CE-F60C11302335}"/>
+    <workbookView xWindow="3924" yWindow="2964" windowWidth="17280" windowHeight="9072" xr2:uid="{02EF117C-553B-4DD7-84CE-F60C11302335}"/>
   </bookViews>
   <sheets>
     <sheet name="Trang_tính1" sheetId="1" r:id="rId1"/>
@@ -511,7 +511,7 @@
   <dimension ref="A1:K11"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A12" sqref="A12:G136"/>
+      <selection activeCell="A12" sqref="A12:H124"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -575,7 +575,7 @@
       </c>
       <c r="F2" s="2" t="str">
         <f ca="1">CONCATENATE("Số ", RANDBETWEEN(1, 100), ", ", CHOOSE(RANDBETWEEN(1,3), "Đường A", "Đường B", "Đường C"), ", ", CHOOSE(RANDBETWEEN(1,3), "Phường X", "Phường Y", "Phường Z"), ", ", "Quận ", CHOOSE(RANDBETWEEN(1,3), "A", "B", "C"), ", ", "Thành phố ", CHOOSE(RANDBETWEEN(1,3), "Hà Nội", "TP.HCM", "Đà Nẵng"))</f>
-        <v>Số 86, Đường B, Phường X, Quận C, Thành phố TP.HCM</v>
+        <v>Số 64, Đường B, Phường Z, Quận C, Thành phố Đà Nẵng</v>
       </c>
       <c r="G2" s="6" t="s">
         <v>13</v>
@@ -589,7 +589,7 @@
         <v>8</v>
       </c>
       <c r="C3" s="2">
-        <f t="shared" ref="C3:C66" ca="1" si="0">RANDBETWEEN(0,1)</f>
+        <f t="shared" ref="C3:C11" ca="1" si="0">RANDBETWEEN(0,1)</f>
         <v>0</v>
       </c>
       <c r="D3" s="3" t="str">
@@ -600,8 +600,8 @@
         <v>11</v>
       </c>
       <c r="F3" s="2" t="str">
-        <f t="shared" ref="F3:F66" ca="1" si="1">CONCATENATE("Số ", RANDBETWEEN(1, 100), ", ", CHOOSE(RANDBETWEEN(1,3), "Đường A", "Đường B", "Đường C"), ", ", CHOOSE(RANDBETWEEN(1,3), "Phường X", "Phường Y", "Phường Z"), ", ", "Quận ", CHOOSE(RANDBETWEEN(1,3), "A", "B", "C"), ", ", "Thành phố ", CHOOSE(RANDBETWEEN(1,3), "Hà Nội", "TP.HCM", "Đà Nẵng"))</f>
-        <v>Số 12, Đường B, Phường X, Quận C, Thành phố TP.HCM</v>
+        <f t="shared" ref="F3:F11" ca="1" si="1">CONCATENATE("Số ", RANDBETWEEN(1, 100), ", ", CHOOSE(RANDBETWEEN(1,3), "Đường A", "Đường B", "Đường C"), ", ", CHOOSE(RANDBETWEEN(1,3), "Phường X", "Phường Y", "Phường Z"), ", ", "Quận ", CHOOSE(RANDBETWEEN(1,3), "A", "B", "C"), ", ", "Thành phố ", CHOOSE(RANDBETWEEN(1,3), "Hà Nội", "TP.HCM", "Đà Nẵng"))</f>
+        <v>Số 100, Đường B, Phường X, Quận A, Thành phố Đà Nẵng</v>
       </c>
       <c r="G3" s="6" t="s">
         <v>14</v>
@@ -616,10 +616,10 @@
       </c>
       <c r="C4" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D4" s="3" t="str">
-        <f t="shared" ref="D3:D4" si="2">"0395906032"</f>
+        <f t="shared" ref="D4" si="2">"0395906032"</f>
         <v>0395906032</v>
       </c>
       <c r="E4" s="7" t="s">
@@ -627,7 +627,7 @@
       </c>
       <c r="F4" s="2" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>Số 17, Đường A, Phường X, Quận A, Thành phố TP.HCM</v>
+        <v>Số 37, Đường A, Phường Z, Quận C, Thành phố Đà Nẵng</v>
       </c>
       <c r="G4" s="6" t="s">
         <v>15</v>
@@ -639,7 +639,7 @@
       </c>
       <c r="B5" s="2" t="str">
         <f t="shared" ref="B5:B11" ca="1" si="3">CHOOSE(RANDBETWEEN(1,4),"Nguyễn","Phạm","Võ","Hoàng")&amp; " " &amp;CHOOSE(RANDBETWEEN(1,2),"Văn","Thị")&amp; " " &amp;CHOOSE(RANDBETWEEN(1,9),"Mẹt","Đẹt","Tũn","Vui","Hài","Tí","Hư","Cu","Tèo")</f>
-        <v>Hoàng Văn Tí</v>
+        <v>Hoàng Văn Hư</v>
       </c>
       <c r="C5" s="2">
         <f t="shared" ca="1" si="0"/>
@@ -647,21 +647,21 @@
       </c>
       <c r="D5" s="3" t="str">
         <f t="shared" ref="D5:D11" ca="1" si="4">CONCATENATE(RANDBETWEEN(0,0), RANDBETWEEN(3,3), RANDBETWEEN(0,9), RANDBETWEEN(0,9), RANDBETWEEN(0,9), RANDBETWEEN(0,9), RANDBETWEEN(0,9), RANDBETWEEN(0,9), RANDBETWEEN(0,9), RANDBETWEEN(0,9))</f>
-        <v>0346636112</v>
+        <v>0300157540</v>
       </c>
       <c r="E5" s="3" t="str">
         <f t="shared" ref="E5:E11" ca="1" si="5">CONCATENATE("user", RANDBETWEEN(100, 999), "@gmail.com")</f>
-        <v>user231@gmail.com</v>
+        <v>user112@gmail.com</v>
       </c>
       <c r="F5" s="2" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>Số 57, Đường B, Phường Z, Quận B, Thành phố TP.HCM</v>
+        <v>Số 40, Đường C, Phường Y, Quận A, Thành phố Đà Nẵng</v>
       </c>
       <c r="G5" s="6" t="str">
         <f ca="1">CHOOSE(RANDBETWEEN(1,3),"3b10df04-54d2-4b3a-9bbb-1f2ba345ae95",
     "ec8bffc6-b22c-4d9e-b904-d8e56cba5232",
     "521ec422-fc4b-4b4c-bd19-d4074e0602ad")</f>
-        <v>3b10df04-54d2-4b3a-9bbb-1f2ba345ae95</v>
+        <v>521ec422-fc4b-4b4c-bd19-d4074e0602ad</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
@@ -670,23 +670,23 @@
       </c>
       <c r="B6" s="2" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>Phạm Văn Đẹt</v>
+        <v>Nguyễn Thị Tí</v>
       </c>
       <c r="C6" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D6" s="3" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>0309871618</v>
+        <v>0386011307</v>
       </c>
       <c r="E6" s="3" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v>user407@gmail.com</v>
+        <v>user416@gmail.com</v>
       </c>
       <c r="F6" s="2" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>Số 19, Đường C, Phường Z, Quận A, Thành phố TP.HCM</v>
+        <v>Số 90, Đường B, Phường Y, Quận A, Thành phố Hà Nội</v>
       </c>
       <c r="G6" s="6" t="str">
         <f t="shared" ref="G6:G11" ca="1" si="6">CHOOSE(RANDBETWEEN(1,3),"3b10df04-54d2-4b3a-9bbb-1f2ba345ae95",
@@ -701,7 +701,7 @@
       </c>
       <c r="B7" s="2" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>Hoàng Thị Tũn</v>
+        <v>Nguyễn Văn Mẹt</v>
       </c>
       <c r="C7" s="2">
         <f t="shared" ca="1" si="0"/>
@@ -709,15 +709,15 @@
       </c>
       <c r="D7" s="3" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>0377418923</v>
+        <v>0350673938</v>
       </c>
       <c r="E7" s="3" t="str">
         <f ca="1">CONCATENATE("user", RANDBETWEEN(100, 999), "@gmail.com")</f>
-        <v>user657@gmail.com</v>
+        <v>user125@gmail.com</v>
       </c>
       <c r="F7" s="2" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>Số 92, Đường B, Phường X, Quận B, Thành phố Hà Nội</v>
+        <v>Số 24, Đường C, Phường Z, Quận C, Thành phố Đà Nẵng</v>
       </c>
       <c r="G7" s="6" t="str">
         <f t="shared" ca="1" si="6"/>
@@ -730,23 +730,23 @@
       </c>
       <c r="B8" s="2" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>Hoàng Thị Hài</v>
+        <v>Hoàng Văn Cu</v>
       </c>
       <c r="C8" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D8" s="3" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>0356558664</v>
+        <v>0367785628</v>
       </c>
       <c r="E8" s="3" t="str">
         <f ca="1">CONCATENATE("user", RANDBETWEEN(100, 999), "@gmail.com")</f>
-        <v>user276@gmail.com</v>
+        <v>user561@gmail.com</v>
       </c>
       <c r="F8" s="2" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>Số 23, Đường B, Phường X, Quận B, Thành phố Đà Nẵng</v>
+        <v>Số 63, Đường A, Phường X, Quận C, Thành phố Đà Nẵng</v>
       </c>
       <c r="G8" s="6" t="str">
         <f t="shared" ca="1" si="6"/>
@@ -759,27 +759,27 @@
       </c>
       <c r="B9" s="2" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>Phạm Văn Cu</v>
+        <v>Hoàng Văn Đẹt</v>
       </c>
       <c r="C9" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D9" s="3" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>0312281974</v>
+        <v>0316999245</v>
       </c>
       <c r="E9" s="3" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v>user695@gmail.com</v>
+        <v>user437@gmail.com</v>
       </c>
       <c r="F9" s="2" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>Số 91, Đường C, Phường X, Quận B, Thành phố Hà Nội</v>
+        <v>Số 89, Đường B, Phường Z, Quận B, Thành phố Đà Nẵng</v>
       </c>
       <c r="G9" s="6" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>521ec422-fc4b-4b4c-bd19-d4074e0602ad</v>
+        <v>3b10df04-54d2-4b3a-9bbb-1f2ba345ae95</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.25">
@@ -796,19 +796,19 @@
       </c>
       <c r="D10" s="3" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>0304117770</v>
+        <v>0360358596</v>
       </c>
       <c r="E10" s="3" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v>user439@gmail.com</v>
+        <v>user864@gmail.com</v>
       </c>
       <c r="F10" s="2" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>Số 38, Đường B, Phường Z, Quận A, Thành phố Hà Nội</v>
+        <v>Số 33, Đường B, Phường Y, Quận B, Thành phố Đà Nẵng</v>
       </c>
       <c r="G10" s="6" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>3b10df04-54d2-4b3a-9bbb-1f2ba345ae95</v>
+        <v>521ec422-fc4b-4b4c-bd19-d4074e0602ad</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.25">
@@ -817,7 +817,7 @@
       </c>
       <c r="B11" s="2" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>Phạm Thị Đẹt</v>
+        <v>Nguyễn Thị Tèo</v>
       </c>
       <c r="C11" s="2">
         <f t="shared" ca="1" si="0"/>
@@ -825,15 +825,15 @@
       </c>
       <c r="D11" s="3" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>0365076102</v>
+        <v>0311514083</v>
       </c>
       <c r="E11" s="3" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v>user879@gmail.com</v>
+        <v>user375@gmail.com</v>
       </c>
       <c r="F11" s="2" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>Số 24, Đường A, Phường Y, Quận C, Thành phố Đà Nẵng</v>
+        <v>Số 83, Đường C, Phường Y, Quận A, Thành phố TP.HCM</v>
       </c>
       <c r="G11" s="6" t="str">
         <f t="shared" ca="1" si="6"/>
